--- a/medicine/Psychotrope/Henri_Jolicoeur_(France)/Henri_Jolicoeur_(France).xlsx
+++ b/medicine/Psychotrope/Henri_Jolicoeur_(France)/Henri_Jolicoeur_(France).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Charles Jolicœur est un médecin français, né à Reims le 4 avril 1839 et mort dans la même ville le 16 janvier 1895[1].  Il joua un rôle important en Champagne dans la lutte contre le phylloxéra.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Charles Jolicœur est un médecin français, né à Reims le 4 avril 1839 et mort dans la même ville le 16 janvier 1895.  Il joua un rôle important en Champagne dans la lutte contre le phylloxéra.
 </t>
         </is>
       </c>
@@ -511,16 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Charles est le fils de Jean-Baptiste Ferdinand Jolicœur, pharmacien à Reims, et de Marie Louise Richard[2]. Il décède le 16 janvier 1895 et est enterré au cimetière du Nord de Reims dans le canton 9.
-Médecin enseignant
-Il devient docteur en médecine à Paris en 1868.
-Il enseigne à l'École de médecine de Reims, d'abord comme chef des travaux anatomiques puis du cours d’histoire naturelle et de zoologie en 1878[3].
-De 1877 à 1892, il est secrétaire général de la Société de viticulture et d'horticulture de Reims.
-Politique
-En 1889, il est élu conseiller municipal à Reims.
-Conseiller général du 4e canton de Reims d'avril 1889[4] à octobre 1894 (démission)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Charles est le fils de Jean-Baptiste Ferdinand Jolicœur, pharmacien à Reims, et de Marie Louise Richard. Il décède le 16 janvier 1895 et est enterré au cimetière du Nord de Reims dans le canton 9.
 </t>
         </is>
       </c>
@@ -546,10 +553,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Médecin enseignant</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il devient docteur en médecine à Paris en 1868.
+Il enseigne à l'École de médecine de Reims, d'abord comme chef des travaux anatomiques puis du cours d’histoire naturelle et de zoologie en 1878.
+De 1877 à 1892, il est secrétaire général de la Société de viticulture et d'horticulture de Reims.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Henri_Jolicoeur_(France)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Jolicoeur_(France)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1889, il est élu conseiller municipal à Reims.
+Conseiller général du 4e canton de Reims d'avril 1889 à octobre 1894 (démission).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Henri_Jolicoeur_(France)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Jolicoeur_(France)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Contributions pour servir à l'histoire des vers intestinaux nématoïdes (Thèse de doctorat), 1868 (OCLC 494096609).
 Avec Victor Lemoine et Alphonse Péron, Aperçu général sur Reims et ses environs aux points de vue géologique, botanique et zoologique, Association française pour l'avancement des sciences, 1880 (OCLC 670211274, lire en ligne).
@@ -562,64 +648,68 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Henri_Jolicoeur_(France)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Henri_Jolicoeur_(France)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur par décret du 31 octobre 1892[1].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur par décret du 31 octobre 1892.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Henri_Jolicoeur_(France)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Henri_Jolicoeur_(France)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Hommage et postérité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'actuel lycée Franklin-Roosevelt s'appelait auparavant collège moderne et technique Jolicœur.
-Comme le lycée, la rue baptisée Henri-Jolicœur en 1895 qui longe ce lycée est rebaptisée en 1949 pour prendre le nom de rue du Président-Franklin-Roosevelt en hommage aux forces armées américaines[3]. Un square anonyme[6], situé derrière la place Saint-Thomas, au cœur du faubourg de Laon, sera nommé square Henri-Jolicœur. Un buste du docteur Jolicoeur avait été inauguré en 1898, place Saint-Thomas à Reims, mais a été détruit du fait de la mobilisation des métaux non ferreux sous le régime de Vichy.
+Comme le lycée, la rue baptisée Henri-Jolicœur en 1895 qui longe ce lycée est rebaptisée en 1949 pour prendre le nom de rue du Président-Franklin-Roosevelt en hommage aux forces armées américaines. Un square anonyme, situé derrière la place Saint-Thomas, au cœur du faubourg de Laon, sera nommé square Henri-Jolicœur. Un buste du docteur Jolicoeur avait été inauguré en 1898, place Saint-Thomas à Reims, mais a été détruit du fait de la mobilisation des métaux non ferreux sous le régime de Vichy.
 </t>
         </is>
       </c>
